--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Venda de Produtos Fracionado" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Venda de produtos inteiro" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Externo</t>
   </si>
@@ -47,7 +46,7 @@
     <t>Extemporaneo</t>
   </si>
   <si>
-    <t>Fazer Venda de Produtos</t>
+    <t>Fazer Venda de Produtos fracionados</t>
   </si>
   <si>
     <t>FB</t>
@@ -77,16 +76,40 @@
     <t>Cliente cancela pedido</t>
   </si>
   <si>
+    <t>Fazer Venda de Produtos inteiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atendente recebe pagamento </t>
   </si>
   <si>
+    <t>X(5)</t>
+  </si>
+  <si>
     <t>Atendente entrega produto</t>
   </si>
   <si>
+    <t>X(6)</t>
+  </si>
+  <si>
     <t>Cliente altera pedido</t>
   </si>
   <si>
-    <t>Não recebimento do pagamento</t>
+    <t>Atendente recebe recusa do produto</t>
+  </si>
+  <si>
+    <t>X(7)</t>
+  </si>
+  <si>
+    <t>Acompanhar cliente no programa de emagrecimento.</t>
+  </si>
+  <si>
+    <t>Cliente solicita acompanhamento</t>
+  </si>
+  <si>
+    <t>Cliente cancela acompanhamento</t>
+  </si>
+  <si>
+    <t>X(11)</t>
   </si>
 </sst>
 </file>
@@ -109,7 +132,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +165,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -219,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -259,17 +294,22 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" textRotation="90"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" textRotation="90"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" textRotation="90"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -281,10 +321,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -537,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="44.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -559,7 +595,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" ht="28.5" customHeight="1">
+    <row r="4" ht="44.25" customHeight="1">
       <c r="B4" s="12"/>
       <c r="C4" s="7">
         <v>2.0</v>
@@ -567,16 +603,16 @@
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" ht="44.25" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="7">
         <v>3.0</v>
@@ -593,7 +629,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" ht="30.75" customHeight="1">
+    <row r="6" ht="44.25" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -612,234 +648,176 @@
       <c r="I6" s="9"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14"/>
+    <row r="7" ht="24.75" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" ht="24.75" customHeight="1">
+      <c r="C8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="C9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="C11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1">
+      <c r="C12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" ht="36.0" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="19"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B5"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="6.57"/>
-    <col customWidth="1" min="2" max="2" width="6.71"/>
-    <col customWidth="1" min="3" max="3" width="3.71"/>
-    <col customWidth="1" min="4" max="4" width="35.43"/>
-    <col customWidth="1" min="5" max="5" width="18.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="C4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="C5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="C8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Externo</t>
   </si>
@@ -106,10 +106,34 @@
     <t>Cliente solicita acompanhamento</t>
   </si>
   <si>
+    <t>Atendente recebe ficha técnica</t>
+  </si>
+  <si>
+    <t>X(11)</t>
+  </si>
+  <si>
+    <t>Cliente recebe rotina nutricional</t>
+  </si>
+  <si>
+    <t>X(12)</t>
+  </si>
+  <si>
+    <t>Preparador físico envia desafios</t>
+  </si>
+  <si>
+    <t>Cliente recebe desafios</t>
+  </si>
+  <si>
+    <t>X(14)</t>
+  </si>
+  <si>
+    <t>Cliente conclui desafios</t>
+  </si>
+  <si>
+    <t>X(15)</t>
+  </si>
+  <si>
     <t>Cliente cancela acompanhamento</t>
-  </si>
-  <si>
-    <t>X(11)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,10 +330,7 @@
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" textRotation="90"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -776,9 +797,6 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" s="1">
         <v>12.0</v>
       </c>
@@ -795,22 +813,93 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="19"/>
+      <c r="C16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="19"/>
+      <c r="C17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="19"/>
+      <c r="C18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -94,7 +94,7 @@
     <t>Cliente altera pedido</t>
   </si>
   <si>
-    <t>Atendente recebe recusa do produto</t>
+    <t>Cliente recusa produto</t>
   </si>
   <si>
     <t>X(7)</t>
@@ -112,7 +112,7 @@
     <t>X(11)</t>
   </si>
   <si>
-    <t>Cliente recebe rotina nutricional</t>
+    <t>Cliente envia rotina nutricional</t>
   </si>
   <si>
     <t>X(12)</t>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -326,6 +326,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" textRotation="90"/>
@@ -762,20 +771,20 @@
       <c r="C12" s="1">
         <v>10.0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="H12" s="20"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" ht="36.0" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -816,7 +825,7 @@
       <c r="C15" s="1">
         <v>13.0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -832,7 +841,7 @@
       <c r="C16" s="1">
         <v>14.0</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
